--- a/Upload.xlsx
+++ b/Upload.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c60f97956556c48a/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{449B1F32-2FA7-4901-A7EF-2DA4DE69BCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{449B1F32-2FA7-4901-A7EF-2DA4DE69BCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{17E1DF0C-CB55-45D4-96F4-08BD5B834832}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AA766844-1DCB-4200-AE7C-2B0573051BB7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>Antim</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>11-10-001</t>
   </si>
 </sst>
 </file>
@@ -430,7 +427,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,9 +462,7 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>36940</v>
-      </c>
+      <c r="D2" s="1"/>
       <c r="E2" t="s">
         <v>8</v>
       </c>
@@ -482,9 +477,7 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
+      <c r="D3" s="1"/>
       <c r="E3" t="s">
         <v>8</v>
       </c>
